--- a/odevler/odev03.xlsx
+++ b/odevler/odev03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calismalar\Github\Ders\BilgiTeknolojileri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calismalar\Github\Ders\BIL119_BilgisayarUygulamalari\odevler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1060B6-A48F-45D3-B6D1-92F92AB18422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0094690-59A9-4E69-B71A-ADD890146E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FABEF05B-537F-4DD0-9E83-2C4B92AD44A1}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <t>Son Yükleme Tarihi:</t>
   </si>
   <si>
-    <t>24 Aralık 2022 saat 06.00</t>
+    <t>31 Aralık 2022 saat 10.00</t>
   </si>
 </sst>
 </file>
@@ -390,6 +390,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -399,10 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,21 +415,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,87 +855,87 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -970,36 +970,36 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="12">
+      <c r="A2" s="18">
         <v>2019</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -1078,20 +1078,20 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>2020</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
@@ -1170,103 +1170,108 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
@@ -1276,11 +1281,6 @@
     <mergeCell ref="G14:L14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,21 +1427,21 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1755,15 +1755,15 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
